--- a/Excel/SpiritConfig.xlsx
+++ b/Excel/SpiritConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1997650A-DAE5-4D88-9B91-05E8C0B2FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F9D2C-7906-4C30-9202-6E0717617A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpiritProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="267">
   <si>
     <t>精灵名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -575,18 +575,6 @@
     <t>伤害加成+5%</t>
   </si>
   <si>
-    <t>TriggerSkill</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainSkill</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动触发技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>主动触发技能</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -886,395 +874,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Name_EN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Little Dryad</t>
-  </si>
-  <si>
-    <t>Little Ooze</t>
-  </si>
-  <si>
-    <t>Timber Wolf</t>
-  </si>
-  <si>
-    <t>Vanguard Wolf</t>
-  </si>
-  <si>
-    <t>Brown Bear</t>
-  </si>
-  <si>
-    <t>Wild Dog</t>
-  </si>
-  <si>
-    <t>Faerie Dragon</t>
-  </si>
-  <si>
-    <t>Crimson Ooze</t>
-  </si>
-  <si>
-    <t>Elder Treant</t>
-  </si>
-  <si>
-    <t>Hemophil Wolf</t>
-  </si>
-  <si>
-    <t>Zombie Puppet</t>
-  </si>
-  <si>
-    <t>Militant Wolf</t>
-  </si>
-  <si>
-    <t>Ooze Controller-Mile</t>
-  </si>
-  <si>
-    <t>Defender-Carles</t>
-  </si>
-  <si>
-    <t>Jungle King-Baphomet</t>
-  </si>
-  <si>
-    <t>Red Guard</t>
-  </si>
-  <si>
-    <t>Blue Guard</t>
-  </si>
-  <si>
-    <t>Red Mage</t>
-  </si>
-  <si>
-    <t>Blue Mage</t>
-  </si>
-  <si>
-    <t>Giant Trilobite</t>
-  </si>
-  <si>
-    <t>Blue Megalith</t>
-  </si>
-  <si>
-    <t>Green Megalith</t>
-  </si>
-  <si>
-    <t>Blue Axman</t>
-  </si>
-  <si>
-    <t>Red Axman</t>
-  </si>
-  <si>
-    <t>Grand Widow-Faerlina</t>
-  </si>
-  <si>
-    <t>Megalith Leader-Kadar</t>
-  </si>
-  <si>
-    <t>Ocean Master-Hydross</t>
-  </si>
-  <si>
-    <t>Lava Guard-Stick</t>
-  </si>
-  <si>
-    <t>Desert Mummy</t>
-  </si>
-  <si>
-    <t>Desert Dog</t>
-  </si>
-  <si>
-    <t>Crimson Mummy</t>
-  </si>
-  <si>
-    <t>Desert Shrewmouse</t>
-  </si>
-  <si>
-    <t>Mummy Guard</t>
-  </si>
-  <si>
-    <t>Hypogeum Defender</t>
-  </si>
-  <si>
-    <t>Hypogeum Guard</t>
-  </si>
-  <si>
-    <t>Hungry Dragon-Bloodboil</t>
-  </si>
-  <si>
-    <t>Axe Reaver-Reims</t>
-  </si>
-  <si>
-    <t>Armor Lord-Oss</t>
-  </si>
-  <si>
-    <t>Soul Lord-Val</t>
-  </si>
-  <si>
-    <t>Rock Giant</t>
-  </si>
-  <si>
-    <t>White Wolf</t>
-  </si>
-  <si>
-    <t>Green Elf</t>
-  </si>
-  <si>
-    <t>Purple Mushroom</t>
-  </si>
-  <si>
-    <t>Green Mushroom</t>
-  </si>
-  <si>
-    <t>Blue Mushroom</t>
-  </si>
-  <si>
-    <t>Mushroom Guard</t>
-  </si>
-  <si>
-    <t>Mushroom Hercules</t>
-  </si>
-  <si>
-    <t>Pike Guard</t>
-  </si>
-  <si>
-    <t>Mace Guard</t>
-  </si>
-  <si>
-    <t>Marsh Fighter-Wall</t>
-  </si>
-  <si>
-    <t>Elf Captain-Firth</t>
-  </si>
-  <si>
-    <t>Mushroom King-Loga</t>
-  </si>
-  <si>
-    <t>Guilty Dragon-Tallus</t>
-  </si>
-  <si>
-    <t>Blaze Spider</t>
-  </si>
-  <si>
-    <t>Blaze Hercules</t>
-  </si>
-  <si>
-    <t>Lava Beetle</t>
-  </si>
-  <si>
-    <t>Rock Defender</t>
-  </si>
-  <si>
-    <t>Metal Garurumon</t>
-  </si>
-  <si>
-    <t>Armed Craftsman</t>
-  </si>
-  <si>
-    <t>Ghost Nightwatcher</t>
-  </si>
-  <si>
-    <t>Hercules King-Robbe</t>
-  </si>
-  <si>
-    <t>Iron Guard-Cillian</t>
-  </si>
-  <si>
-    <t>Thunder Controller-Vic</t>
-  </si>
-  <si>
-    <t>Iron King-Armis</t>
-  </si>
-  <si>
-    <t>Ancient Dragon King-Korthazz</t>
-  </si>
-  <si>
-    <t>Ignore target magic defense value +30</t>
-  </si>
-  <si>
-    <t>HP +100</t>
-  </si>
-  <si>
-    <t>Healing +10</t>
-  </si>
-  <si>
-    <t>Attack +30</t>
-  </si>
-  <si>
-    <t>Beast Attack Bonus + 5%</t>
-  </si>
-  <si>
-    <t>Ignore target defense value +30</t>
-  </si>
-  <si>
-    <t>Triggers after equipped, movement speed +15%</t>
-  </si>
-  <si>
-    <t>Lightning Resistance + 5%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, demon attack resistance + 20%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, there is a probability to summon a red wolf to assist you in the attack for 30 seconds</t>
-  </si>
-  <si>
-    <t>Spell Attack +100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triggered after equipped, beast attack+ 20% </t>
-  </si>
-  <si>
-    <t>HP limit+2%</t>
-  </si>
-  <si>
-    <t>Forge Proficiency +50</t>
-  </si>
-  <si>
-    <t>Triggered after equipped.When attacking, there is a 5% chance to cause a thunderbolt on the target, causing 300% damage and stun for 3 seconds.</t>
-  </si>
-  <si>
-    <t>Gold coin income + 2%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, humanoid attack resistance + 20%</t>
-  </si>
-  <si>
-    <t>Blessing + 100%</t>
-  </si>
-  <si>
-    <t>Frost Resistance + 5%</t>
-  </si>
-  <si>
-    <t>Humanoid Attack + 5%</t>
-  </si>
-  <si>
-    <t>Humanoid Attack Resistance + 5%</t>
-  </si>
-  <si>
-    <t>Luck value + 100%</t>
-  </si>
-  <si>
-    <t>Triggered when equipped, humanoid attack + 20%</t>
-  </si>
-  <si>
-    <t>Critical Strike Chance + 5%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, causing Skyfire effect to the front area, causing 300% damage and reduce speed by 50% for 5 seconds</t>
-  </si>
-  <si>
-    <t>Dodge Probability + 5%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, increases blood return speed by 100%</t>
-  </si>
-  <si>
-    <t>Triggers after equipped, continuously cause 30% damage to nearby units</t>
-  </si>
-  <si>
-    <t>Fire resistance + 5%</t>
-  </si>
-  <si>
-    <t>Triggered when equipped, Beast Attack Resistance + 20%</t>
-  </si>
-  <si>
-    <t>Demon Attack+ 5%</t>
-  </si>
-  <si>
-    <t>Beast Attack Resistance + 5%</t>
-  </si>
-  <si>
-    <t>Extreme value + 100%</t>
-  </si>
-  <si>
-    <t>Resilience probability + 5%</t>
-  </si>
-  <si>
-    <t>Experence income + 2%</t>
-  </si>
-  <si>
-    <t>Fixed damage +50</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, blood-sucking effect! When attacking, drain 10% of the damage caused to restore your health</t>
-  </si>
-  <si>
-    <t>Resurrection chance + 5%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, + 20% bonus to demon attack</t>
-  </si>
-  <si>
-    <t>Demon Attack Resistance + 5%</t>
-  </si>
-  <si>
-    <t>Slam probability + 2.5%</t>
-  </si>
-  <si>
-    <t>Pharmacy Proficiency +50</t>
-  </si>
-  <si>
-    <t>Shadow Resistance + 5%</t>
-  </si>
-  <si>
-    <t>Triggered when equipped, physical defense +30</t>
-  </si>
-  <si>
-    <t>Hit probability + 5%</t>
-  </si>
-  <si>
-    <t>Attack +50</t>
-  </si>
-  <si>
-    <t>Triggers after equipped, 5% probability of 300% damage when attacking, and reduces target's attack by 50% for 6 seconds</t>
-  </si>
-  <si>
-    <t>Trigger when equipped to trigger invisibility</t>
-  </si>
-  <si>
-    <t>Ignore target magic dfense value +50</t>
-  </si>
-  <si>
-    <t>Trigger after equipped, trigger invincible status after using the skill, after being invincible, it can be immune to any damage and harmful state effects for 6 seconds</t>
-  </si>
-  <si>
-    <t>Magic Defense +30</t>
-  </si>
-  <si>
-    <t>Has a 5% chance to be directly immune to harmful effects</t>
-  </si>
-  <si>
-    <t>Holy Resistance + 5%</t>
-  </si>
-  <si>
-    <t>HP +300</t>
-  </si>
-  <si>
-    <t>Attack Penetration + 5%</t>
-  </si>
-  <si>
-    <t>Magic Penetration + 5%</t>
-  </si>
-  <si>
-    <t>Attack +100</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, increasing the probability of catching pets</t>
-  </si>
-  <si>
-    <t>Ignore target defense +50</t>
-  </si>
-  <si>
-    <t>Ignore Defense + 5%</t>
-  </si>
-  <si>
-    <t>Damage + 5%</t>
-  </si>
-  <si>
-    <t>Triggered after equipped, causing a thunderbolt effect to the front area, causing 300% damage and causing a stun effect for 3 seconds</t>
-  </si>
-  <si>
-    <t>Des_EN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>回血值+20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1283,14 +882,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DEF + 30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP +20 /s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>装备后触发,在技能栏装备此技能,触发无敌状态,免疫任何伤害和有害状态效果,持续6秒</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1299,10 +890,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Triggers after equipped, Restore 2000HP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>37,0.05</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1352,6 +939,10 @@
   <si>
     <t>ChapterID</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1778,7 +1369,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1972,12 +1563,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2151,7 +1736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2331,30 +1916,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2739,145 +2300,145 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2889,7 +2450,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -2898,101 +2459,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3025,7 +2586,7 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3035,22 +2596,110 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
@@ -3059,39 +2708,298 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3099,395 +3007,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -3496,49 +3057,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -3547,16 +3108,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -3569,13 +3130,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -3584,258 +3145,258 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -4192,61 +3753,61 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -4254,13 +3815,128 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -4269,284 +3945,169 @@
     <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5645,94 +5206,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5741,7 +5332,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -5750,58 +5348,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7029,76 +6590,76 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7122,15 +6683,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7140,14 +6692,8 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="15" xfId="1581" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="16" xfId="1581" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1599">
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="1055" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -9112,33 +8658,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O90"/>
+  <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="47.625" customWidth="1"/>
-    <col min="15" max="15" width="49.5" customWidth="1"/>
-    <col min="16" max="18" width="13" customWidth="1"/>
+    <col min="3" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="47.625" customWidth="1"/>
+    <col min="13" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
-        <v>397</v>
+    <row r="1" spans="3:12" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>117</v>
@@ -9147,113 +8690,86 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="J3" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="K3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="23" t="s">
-        <v>398</v>
+    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>380</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
-        <v>396</v>
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>10001</v>
       </c>
@@ -9269,28 +8785,21 @@
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="H6" s="10">
         <v>10001010</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="2">
+      <c r="I6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2">
         <v>70001010</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>318</v>
-      </c>
     </row>
-    <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>10002</v>
       </c>
@@ -9306,28 +8815,21 @@
       <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="10">
         <v>10001020</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="4">
+      <c r="I7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4">
         <v>70001020</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>319</v>
-      </c>
     </row>
-    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>10003</v>
       </c>
@@ -9343,28 +8845,21 @@
       <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="4">
+      <c r="I8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4">
         <v>70001030</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>320</v>
-      </c>
     </row>
-    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>10004</v>
       </c>
@@ -9380,28 +8875,21 @@
       <c r="G9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="10">
         <v>10001040</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="4">
+      <c r="I9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4">
         <v>70001040</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>321</v>
-      </c>
     </row>
-    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>10005</v>
       </c>
@@ -9417,28 +8905,21 @@
       <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="H10" s="10">
         <v>10001050</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="4">
+      <c r="I10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="4">
         <v>70001050</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>322</v>
+      <c r="L10" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>10006</v>
       </c>
@@ -9454,28 +8935,21 @@
       <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="H11" s="10">
         <v>10001060</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="4">
+      <c r="I11" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4">
         <v>70001060</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="11" t="s">
-        <v>323</v>
-      </c>
     </row>
-    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>10007</v>
       </c>
@@ -9491,30 +8965,23 @@
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="10">
         <v>10001070</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="I12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="4">
         <v>70001070</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>324</v>
+      <c r="L12" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>10008</v>
       </c>
@@ -9530,28 +8997,21 @@
       <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="10">
         <v>10001080</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="4">
+      <c r="I13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="4">
         <v>70001080</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>325</v>
-      </c>
     </row>
-    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>10009</v>
       </c>
@@ -9567,30 +9027,23 @@
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="I14" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J14" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="4">
+        <v>195</v>
+      </c>
+      <c r="K14" s="4">
         <v>70001090</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>326</v>
+      <c r="L14" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>10010</v>
       </c>
@@ -9606,30 +9059,23 @@
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="I15" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J15" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="M15" s="4">
+        <v>196</v>
+      </c>
+      <c r="K15" s="4">
         <v>70001901</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>327</v>
+      <c r="L15" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>10011</v>
       </c>
@@ -9645,28 +9091,21 @@
       <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="4">
+      <c r="I16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="4">
         <v>70001902</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="O16" s="11" t="s">
-        <v>328</v>
-      </c>
     </row>
-    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>10012</v>
       </c>
@@ -9682,30 +9121,23 @@
       <c r="G17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="I17" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J17" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="4">
+        <v>197</v>
+      </c>
+      <c r="K17" s="4">
         <v>70001903</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>329</v>
+      <c r="L17" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>10013</v>
       </c>
@@ -9719,30 +9151,23 @@
         <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="4">
+      <c r="I18" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="4">
         <v>70001904</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>330</v>
-      </c>
     </row>
-    <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>10014</v>
       </c>
@@ -9758,28 +9183,21 @@
       <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="4">
+      <c r="I19" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="4">
         <v>70001905</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>331</v>
-      </c>
     </row>
-    <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>10015</v>
       </c>
@@ -9795,30 +9213,23 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="I20" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J20" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="M20" s="4">
+        <v>198</v>
+      </c>
+      <c r="K20" s="4">
         <v>70001906</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>332</v>
+      <c r="L20" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4">
         <v>20001</v>
       </c>
@@ -9834,28 +9245,21 @@
       <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="H21" s="10">
         <v>10002010</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="4">
+      <c r="I21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="4">
         <v>70002010</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="O21" s="11" t="s">
-        <v>333</v>
-      </c>
     </row>
-    <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4">
         <v>20002</v>
       </c>
@@ -9871,30 +9275,23 @@
       <c r="G22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="I22" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J22" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="M22" s="4">
+        <v>199</v>
+      </c>
+      <c r="K22" s="4">
         <v>70002020</v>
       </c>
-      <c r="N22" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>334</v>
+      <c r="L22" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="4">
         <v>20003</v>
       </c>
@@ -9910,28 +9307,21 @@
       <c r="G23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="4">
+      <c r="I23" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="4">
         <v>70002030</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>335</v>
-      </c>
     </row>
-    <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4">
         <v>20004</v>
       </c>
@@ -9947,28 +9337,21 @@
       <c r="G24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="4">
+      <c r="I24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="4">
         <v>70002040</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>336</v>
+      <c r="L24" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4">
         <v>20005</v>
       </c>
@@ -9984,28 +9367,21 @@
       <c r="G25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="4">
+      <c r="I25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="4">
         <v>70002050</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>337</v>
+      <c r="L25" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4">
         <v>20006</v>
       </c>
@@ -10021,28 +9397,21 @@
       <c r="G26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="10">
+      <c r="H26" s="10">
         <v>10002060</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="4">
+      <c r="I26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="4">
         <v>70002060</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>338</v>
+      <c r="L26" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="27" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4">
         <v>20007</v>
       </c>
@@ -10058,28 +9427,21 @@
       <c r="G27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="4">
+      <c r="I27" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="4">
         <v>70002070</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="L27" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>339</v>
-      </c>
     </row>
-    <row r="28" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="4">
         <v>20008</v>
       </c>
@@ -10093,32 +9455,25 @@
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="I28" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="I28" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="M28" s="4">
+        <v>200</v>
+      </c>
+      <c r="K28" s="4">
         <v>70002080</v>
       </c>
-      <c r="N28" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>340</v>
+      <c r="L28" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="29" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="4">
         <v>20009</v>
       </c>
@@ -10132,30 +9487,23 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="I29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="4">
+      <c r="I29" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="4">
         <v>70002090</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="O29" s="11" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="4">
         <v>20010</v>
       </c>
@@ -10171,30 +9519,23 @@
       <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>82</v>
       </c>
+      <c r="I30" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J30" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="M30" s="4">
+        <v>201</v>
+      </c>
+      <c r="K30" s="4">
         <v>70002901</v>
       </c>
-      <c r="N30" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>342</v>
+      <c r="L30" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4">
         <v>20011</v>
       </c>
@@ -10210,28 +9551,21 @@
       <c r="G31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="4">
+      <c r="I31" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="4">
         <v>70002902</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="11" t="s">
-        <v>343</v>
-      </c>
     </row>
-    <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4">
         <v>20012</v>
       </c>
@@ -10247,30 +9581,23 @@
       <c r="G32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="I32" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J32" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="M32" s="4">
+        <v>202</v>
+      </c>
+      <c r="K32" s="4">
         <v>70002903</v>
       </c>
-      <c r="N32" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>344</v>
+      <c r="L32" s="11" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="33" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4">
         <v>20013</v>
       </c>
@@ -10286,30 +9613,23 @@
       <c r="G33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>85</v>
       </c>
+      <c r="I33" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J33" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="M33" s="4">
+        <v>203</v>
+      </c>
+      <c r="K33" s="4">
         <v>70002904</v>
       </c>
-      <c r="N33" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>345</v>
+      <c r="L33" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="34" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="4">
         <v>30001</v>
       </c>
@@ -10325,28 +9645,21 @@
       <c r="G34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="I34" s="10">
+      <c r="H34" s="10">
         <v>10003010</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="4">
+      <c r="I34" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="4">
         <v>70003010</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="L34" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="O34" s="11" t="s">
-        <v>346</v>
-      </c>
     </row>
-    <row r="35" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="4">
         <v>30002</v>
       </c>
@@ -10354,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -10362,30 +9675,23 @@
       <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="H35" s="10">
         <v>10003020</v>
       </c>
+      <c r="I35" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J35" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="M35" s="4">
+        <v>204</v>
+      </c>
+      <c r="K35" s="4">
         <v>70003020</v>
       </c>
-      <c r="N35" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>347</v>
+      <c r="L35" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="36" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="4">
         <v>30003</v>
       </c>
@@ -10401,28 +9707,21 @@
       <c r="G36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="4">
+      <c r="I36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="4">
         <v>70003030</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>348</v>
+      <c r="L36" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="37" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="4">
         <v>30004</v>
       </c>
@@ -10438,28 +9737,21 @@
       <c r="G37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="4">
+      <c r="I37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="4">
         <v>70003040</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="L37" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="11" t="s">
-        <v>349</v>
-      </c>
     </row>
-    <row r="38" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="4">
         <v>30005</v>
       </c>
@@ -10475,28 +9767,21 @@
       <c r="G38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="4">
+      <c r="I38" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="4">
         <v>70003050</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="L38" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O38" s="11" t="s">
-        <v>350</v>
-      </c>
     </row>
-    <row r="39" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="4">
         <v>30006</v>
       </c>
@@ -10512,28 +9797,21 @@
       <c r="G39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="4">
+      <c r="I39" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="4">
         <v>70003060</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>351</v>
+      <c r="L39" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="40" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="4">
         <v>30007</v>
       </c>
@@ -10549,34 +9827,27 @@
       <c r="G40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="H40" s="10">
         <v>10003070</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="M40" s="4">
+      <c r="I40" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="4">
         <v>70003070</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O40" s="11" t="s">
-        <v>352</v>
-      </c>
     </row>
-    <row r="41" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="4">
         <v>30008</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>70003901</v>
       </c>
       <c r="F41" s="2">
@@ -10585,35 +9856,28 @@
       <c r="G41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="4">
+      <c r="I41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="4">
         <v>70003901</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="O41" s="11" t="s">
-        <v>353</v>
-      </c>
     </row>
-    <row r="42" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="4">
         <v>30009</v>
       </c>
       <c r="D42" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>70003902</v>
       </c>
       <c r="F42" s="2">
@@ -10622,37 +9886,30 @@
       <c r="G42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="I42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>91</v>
       </c>
+      <c r="I42" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J42" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="M42" s="4">
+        <v>206</v>
+      </c>
+      <c r="K42" s="4">
         <v>70003902</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>354</v>
+      <c r="L42" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="43" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="4">
         <v>30010</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>70003903</v>
       </c>
       <c r="F43" s="2">
@@ -10661,35 +9918,28 @@
       <c r="G43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="4">
+      <c r="I43" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="4">
         <v>70003903</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="O43" s="11" t="s">
-        <v>355</v>
-      </c>
     </row>
-    <row r="44" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="4">
         <v>30011</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>70003904</v>
       </c>
       <c r="F44" s="2">
@@ -10698,30 +9948,23 @@
       <c r="G44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="I44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>93</v>
       </c>
+      <c r="I44" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J44" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="M44" s="4">
+        <v>205</v>
+      </c>
+      <c r="K44" s="4">
         <v>70003904</v>
       </c>
-      <c r="N44" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>356</v>
+      <c r="L44" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="45" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="4">
         <v>40001</v>
       </c>
@@ -10737,28 +9980,21 @@
       <c r="G45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="I45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="4">
+      <c r="I45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="4">
         <v>70004010</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="L45" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="O45" s="11" t="s">
-        <v>357</v>
-      </c>
     </row>
-    <row r="46" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="4">
         <v>40002</v>
       </c>
@@ -10774,28 +10010,21 @@
       <c r="G46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="4">
+      <c r="I46" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="4">
         <v>70004020</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="L46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O46" s="11" t="s">
-        <v>358</v>
-      </c>
     </row>
-    <row r="47" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="4">
         <v>40003</v>
       </c>
@@ -10811,30 +10040,23 @@
       <c r="G47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="I47" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J47" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="M47" s="4">
+        <v>207</v>
+      </c>
+      <c r="K47" s="4">
         <v>70004030</v>
       </c>
-      <c r="N47" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>387</v>
+      <c r="L47" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="48" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="4">
         <v>40004</v>
       </c>
@@ -10850,28 +10072,21 @@
       <c r="G48" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="I48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="4">
+      <c r="I48" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="4">
         <v>70004040</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="L48" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="11" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="49" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="4">
         <v>40005</v>
       </c>
@@ -10887,28 +10102,21 @@
       <c r="G49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="4">
+      <c r="I49" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="4">
         <v>70004050</v>
       </c>
-      <c r="N49" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>384</v>
+      <c r="L49" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="50" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="4">
         <v>40006</v>
       </c>
@@ -10924,28 +10132,21 @@
       <c r="G50" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="4">
+      <c r="I50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="4">
         <v>70004060</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="O50" s="11" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="51" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="4">
         <v>40007</v>
       </c>
@@ -10961,28 +10162,21 @@
       <c r="G51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="H51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="4">
+      <c r="I51" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="4">
         <v>70004070</v>
       </c>
-      <c r="N51" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>383</v>
+      <c r="L51" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="52" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="4">
         <v>40008</v>
       </c>
@@ -10998,30 +10192,23 @@
       <c r="G52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="I52" s="10" t="s">
+      <c r="H52" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9">
+      <c r="I52" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="9">
         <v>60060015</v>
       </c>
-      <c r="M52" s="4">
+      <c r="K52" s="4">
         <v>70004080</v>
       </c>
-      <c r="N52" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>361</v>
+      <c r="L52" s="11" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="53" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="4">
         <v>40009</v>
       </c>
@@ -11037,28 +10224,21 @@
       <c r="G53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I53" s="10">
+      <c r="H53" s="10">
         <v>10004090</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="4">
+      <c r="I53" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="4">
         <v>70004090</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="L53" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="O53" s="11" t="s">
-        <v>362</v>
-      </c>
     </row>
-    <row r="54" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="4">
         <v>40010</v>
       </c>
@@ -11074,35 +10254,28 @@
       <c r="G54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="4">
+      <c r="I54" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="4">
         <v>70004100</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="L54" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O54" s="11" t="s">
-        <v>363</v>
-      </c>
     </row>
-    <row r="55" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="4">
         <v>40011</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="13">
         <v>70004901</v>
       </c>
       <c r="F55" s="2">
@@ -11111,37 +10284,30 @@
       <c r="G55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="I55" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="I55" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="M55" s="4">
+        <v>208</v>
+      </c>
+      <c r="K55" s="4">
         <v>70004901</v>
       </c>
-      <c r="N55" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="O55" s="11" t="s">
-        <v>364</v>
+      <c r="L55" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="56" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="4">
         <v>40012</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="13">
         <v>70004902</v>
       </c>
       <c r="F56" s="2">
@@ -11150,37 +10316,30 @@
       <c r="G56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="I56" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J56" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="M56" s="4">
+        <v>209</v>
+      </c>
+      <c r="K56" s="4">
         <v>70004902</v>
       </c>
-      <c r="N56" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>365</v>
+      <c r="L56" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="57" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="4">
         <v>40013</v>
       </c>
       <c r="D57" s="4">
         <v>3</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="13">
         <v>70004903</v>
       </c>
       <c r="F57" s="2">
@@ -11189,35 +10348,28 @@
       <c r="G57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="4">
+      <c r="I57" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="4">
         <v>70004903</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="L57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="O57" s="11" t="s">
-        <v>366</v>
-      </c>
     </row>
-    <row r="58" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="4">
         <v>40014</v>
       </c>
       <c r="D58" s="4">
         <v>3</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="13">
         <v>70004904</v>
       </c>
       <c r="F58" s="2">
@@ -11226,30 +10378,23 @@
       <c r="G58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="I58" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J58" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M58" s="4">
+        <v>210</v>
+      </c>
+      <c r="K58" s="4">
         <v>70004904</v>
       </c>
-      <c r="N58" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>367</v>
+      <c r="L58" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="59" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="4">
         <v>50001</v>
       </c>
@@ -11265,28 +10410,21 @@
       <c r="G59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="I59" s="10">
+      <c r="H59" s="10">
         <v>10005010</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="4">
+      <c r="I59" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="4">
         <v>70005010</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="L59" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="O59" s="11" t="s">
-        <v>368</v>
-      </c>
     </row>
-    <row r="60" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="4">
         <v>50002</v>
       </c>
@@ -11302,28 +10440,21 @@
       <c r="G60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H60" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="I60" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="4">
+      <c r="I60" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="4">
         <v>70005020</v>
       </c>
-      <c r="N60" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="O60" s="11" t="s">
-        <v>369</v>
+      <c r="L60" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="61" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="4">
         <v>50003</v>
       </c>
@@ -11339,28 +10470,21 @@
       <c r="G61" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H61" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="I61" s="10">
+      <c r="H61" s="10">
         <v>10005030</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="4">
+      <c r="I61" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="4">
         <v>70005030</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="L61" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="O61" s="11" t="s">
-        <v>370</v>
-      </c>
     </row>
-    <row r="62" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="4">
         <v>50004</v>
       </c>
@@ -11376,28 +10500,21 @@
       <c r="G62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="I62" s="10" t="s">
+      <c r="H62" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="4">
+      <c r="I62" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="4">
         <v>70005040</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="L62" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="O62" s="11" t="s">
-        <v>371</v>
-      </c>
     </row>
-    <row r="63" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="4">
         <v>50005</v>
       </c>
@@ -11413,28 +10530,21 @@
       <c r="G63" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="I63" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="4">
+      <c r="I63" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="4">
         <v>70005050</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="L63" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="11" t="s">
-        <v>372</v>
-      </c>
     </row>
-    <row r="64" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="4">
         <v>50006</v>
       </c>
@@ -11450,28 +10560,21 @@
       <c r="G64" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H64" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="I64" s="10" t="s">
+      <c r="H64" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="4">
+      <c r="I64" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="9"/>
+      <c r="K64" s="4">
         <v>70005060</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="L64" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O64" s="11" t="s">
-        <v>373</v>
-      </c>
     </row>
-    <row r="65" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="4">
         <v>50007</v>
       </c>
@@ -11487,35 +10590,28 @@
       <c r="G65" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H65" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="I65" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="4">
+      <c r="I65" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="4">
         <v>70005070</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="L65" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="O65" s="11" t="s">
-        <v>374</v>
-      </c>
     </row>
-    <row r="66" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="4">
         <v>50008</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="13">
         <v>70005901</v>
       </c>
       <c r="F66" s="2">
@@ -11524,37 +10620,30 @@
       <c r="G66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="I66" s="10" t="s">
+      <c r="H66" s="10" t="s">
         <v>112</v>
       </c>
+      <c r="I66" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="J66" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M66" s="4">
+        <v>211</v>
+      </c>
+      <c r="K66" s="4">
         <v>70005901</v>
       </c>
-      <c r="N66" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>375</v>
+      <c r="L66" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="67" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="4">
         <v>50009</v>
       </c>
       <c r="D67" s="4">
         <v>4</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="13">
         <v>70005902</v>
       </c>
       <c r="F67" s="2">
@@ -11563,35 +10652,28 @@
       <c r="G67" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I67" s="10" t="s">
+      <c r="H67" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="4">
+      <c r="I67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="4">
         <v>70005902</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="L67" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O67" s="11" t="s">
-        <v>376</v>
-      </c>
     </row>
-    <row r="68" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="4">
         <v>50010</v>
       </c>
       <c r="D68" s="4">
         <v>4</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="13">
         <v>70005903</v>
       </c>
       <c r="F68" s="2">
@@ -11600,35 +10682,28 @@
       <c r="G68" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H68" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="I68" s="10" t="s">
+      <c r="H68" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="4">
+      <c r="I68" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="4">
         <v>70005903</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="L68" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O68" s="11" t="s">
-        <v>377</v>
-      </c>
     </row>
-    <row r="69" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="4">
         <v>50011</v>
       </c>
       <c r="D69" s="4">
         <v>4</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="13">
         <v>70005904</v>
       </c>
       <c r="F69" s="2">
@@ -11637,35 +10712,28 @@
       <c r="G69" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="I69" s="10" t="s">
+      <c r="H69" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="4">
+      <c r="I69" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J69" s="9"/>
+      <c r="K69" s="4">
         <v>70005904</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="L69" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="O69" s="11" t="s">
-        <v>378</v>
-      </c>
     </row>
-    <row r="70" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="4">
         <v>50012</v>
       </c>
       <c r="D70" s="6">
         <v>4</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="14">
         <v>70005905</v>
       </c>
       <c r="F70" s="2">
@@ -11674,37 +10742,30 @@
       <c r="G70" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="I70" s="10" t="s">
+      <c r="H70" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M70" s="6">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K70" s="6">
         <v>70005905</v>
       </c>
-      <c r="N70" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>379</v>
+      <c r="L70" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="71" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11717,11 +10778,8 @@
     <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>